--- a/DateBase/orders/Nha Thu_2025-8-6.xlsx
+++ b/DateBase/orders/Nha Thu_2025-8-6.xlsx
@@ -646,6 +646,9 @@
       <c r="G2" t="str">
         <v>0111110124101611102012665105</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
